--- a/src/FXMM/MissingInMX.xlsx
+++ b/src/FXMM/MissingInMX.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari\Desktop\Catch All\FXMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluggle/Documents/Github/report_analysis/src/FXMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D741FD-737D-4E1F-ABC1-B82A222C39C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FC5F12C-5AA0-42FB-A7CC-0C0A52A9CA1F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="MissingInMX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SI</t>
   </si>
@@ -91,16 +96,13 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +113,12 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,31 +462,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BD5F0-C427-4397-BF6C-847868919DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -522,10 +530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>7</v>
       </c>
@@ -558,6 +563,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>